--- a/极限开发小组开发计划.xlsx
+++ b/极限开发小组开发计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Sophomore semester2\Program Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Github\Teamwork\AIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75C8ADF-58C3-4967-BFBB-DA2D53856740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66731464-6A62-4558-88A7-FD0250B5B185}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11010" xr2:uid="{BC7F2728-47CE-4151-82BF-ED36DBCC12A1}"/>
+    <workbookView xWindow="-240" yWindow="-240" windowWidth="38880" windowHeight="16080" xr2:uid="{BC7F2728-47CE-4151-82BF-ED36DBCC12A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>极限软件开发小组开发分配</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,70 @@
   </si>
   <si>
     <t>Axure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设计与分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Astah UML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计部署图，组织结构图，用例图，领域模型，时序图，类图，E-R图，程序流程图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭伟智，卜君健负责客户端，李宝航，毛煜洲负责服务器端，张婧负责数据库端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIDA概要设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIDA详细设计说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word 2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭伟智，卜君健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宝航，毛煜洲，张婧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如文档所示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛煜洲</t>
+  </si>
+  <si>
+    <t>张婧</t>
+  </si>
+  <si>
+    <t>彭伟智</t>
+  </si>
+  <si>
+    <t>李宝航</t>
+  </si>
+  <si>
+    <t>Sprint冲刺</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,22 +549,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFC5749-031D-4426-B30C-E784E8B82664}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H12"/>
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="20.296875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +578,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -535,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -551,40 +620,67 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -600,37 +696,132 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
         <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="56.4" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/极限开发小组开发计划.xlsx
+++ b/极限开发小组开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Github\Teamwork\AIDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66731464-6A62-4558-88A7-FD0250B5B185}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8E6E67-D2DF-49CF-AEB3-052A0C1D65E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="38880" windowHeight="16080" xr2:uid="{BC7F2728-47CE-4151-82BF-ED36DBCC12A1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BC7F2728-47CE-4151-82BF-ED36DBCC12A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>极限软件开发小组开发分配</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,30 @@
   </si>
   <si>
     <t>Sprint冲刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天界面（群聊/个人聊天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭伟智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卜君健，彭伟智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李宝航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛煜洲，李宝航</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,12 +243,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,7 +260,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFC5749-031D-4426-B30C-E784E8B82664}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -560,23 +587,23 @@
     <col min="1" max="1" width="23.75" customWidth="1"/>
     <col min="2" max="2" width="20.296875" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="21.09765625" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
@@ -605,13 +632,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
@@ -625,37 +652,37 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -667,9 +694,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -681,13 +708,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
@@ -701,9 +728,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" t="s">
         <v>2</v>
       </c>
@@ -715,9 +742,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -729,9 +756,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -743,9 +770,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -766,13 +793,13 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
@@ -824,8 +851,52 @@
         <v>36</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="3"/>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="3"/>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="3"/>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="3"/>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A17:A21"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
